--- a/etl/exos/tp2/data/output/posts_api.xlsx
+++ b/etl/exos/tp2/data/output/posts_api.xlsx
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.28</v>
+        <v>14.02</v>
       </c>
     </row>
   </sheetData>
